--- a/bad information mining/需要检测的页面/http___www.aishuge.cc_.xlsx
+++ b/bad information mining/需要检测的页面/http___www.aishuge.cc_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,250 +448,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://www.aishuge.cc/kan/86/86376/</t>
+          <t>('/kan/496/496219/', 'http://www.aishuge.cc/kan/496/496219/')</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679134.html</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://www.aishuge.cc/kan/335/335677/</t>
+          <t>('/kan/491/491159/', 'http://www.aishuge.cc/kan/491/491159/')</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/313443.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679403.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679300.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679144.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679383.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679406.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679182.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679379.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679247.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679343.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679293.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679365.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679342.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/sort/0_allvisit_0_0_0_1.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679134.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/313443.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679403.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679300.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679144.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679383.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679406.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679182.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679379.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679247.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679343.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679293.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679365.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/kan/335/335677/679342.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>http://www.aishuge.cc/sort/0_allvisit_0_0_0_1.html</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bad information mining/需要检测的页面/http___www.aishuge.cc_.xlsx
+++ b/bad information mining/需要检测的页面/http___www.aishuge.cc_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,22 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>('/kan/496/496219/', 'http://www.aishuge.cc/kan/496/496219/')</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>('/kan/491/491159/', 'http://www.aishuge.cc/kan/491/491159/')</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
